--- a/_CaltexGoPH/src/test/resources/Local Datasheets/OnBoarding_SignIn.xlsx
+++ b/_CaltexGoPH/src/test/resources/Local Datasheets/OnBoarding_SignIn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patricio.c.calacasan\eclipse-workspace\CaltexGo Mobile Automation\_CaltexGoPH\src\test\resources\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mobile Automation\Git Repository\CaltexGoPH\_CaltexGoPH\src\test\resources\Local Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE85B83-F64D-44B5-9460-A2D3E011B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F83748-A419-430E-B14E-AE5168009559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mobile Number</t>
   </si>
   <si>
     <t>9337359242</t>
+  </si>
+  <si>
+    <t>Incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>Error Message_Incorrect Mobile Nubmer</t>
+  </si>
+  <si>
+    <t>Your login details are incorrect. Please try again or sign up for an account.</t>
   </si>
 </sst>
 </file>
@@ -354,26 +366,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="46.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_CaltexGoPH/src/test/resources/Local Datasheets/OnBoarding_SignIn.xlsx
+++ b/_CaltexGoPH/src/test/resources/Local Datasheets/OnBoarding_SignIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mobile Automation\Git Repository\CaltexGoPH\_CaltexGoPH\src\test\resources\Local Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F83748-A419-430E-B14E-AE5168009559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08982FDB-C1CB-47B7-9281-8BB0265A6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>9123456789</t>
   </si>
   <si>
-    <t>Error Message_Incorrect Mobile Nubmer</t>
-  </si>
-  <si>
     <t>Your login details are incorrect. Please try again or sign up for an account.</t>
+  </si>
+  <si>
+    <t>Error Message_Incorrect Mobile Number</t>
   </si>
 </sst>
 </file>
@@ -372,15 +372,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="46.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="46.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,10 +388,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
